--- a/xueqiu_stock/stock_index_data/IXIC.xlsx
+++ b/xueqiu_stock/stock_index_data/IXIC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,6 +628,65 @@
         <v>3611000000</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tue Oct 31 00:50:03 2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IXIC</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NASDAQ Composite</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Trading in Progress</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12714.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+71.05  +0.56%</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>12842.96</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12750.47</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14446.55</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12691.56</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12643.01</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10207.47</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1873000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
